--- a/Факультет_Тестирование_ПО_1_четверть_практикум_ДЗ_7_Харчёв_В.П..xlsx
+++ b/Факультет_Тестирование_ПО_1_четверть_практикум_ДЗ_7_Харчёв_В.П..xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8232" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8232" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <r>
       <rPr>
@@ -243,9 +243,6 @@
     <t>Выгрузить все задачи текущего проекта со средним приоритетом (Medium)</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Выгрузить все задачи текущего проекта, которые содержат метку "test_1" и со средним приоритетом (Medium)
 Примечание: добавьте двум задачам предварительно эту метку и приоритет Medium </t>
   </si>
@@ -272,36 +269,10 @@
     </r>
   </si>
   <si>
-    <t>2. Кликнуть на иконку "Вебинары" расположенной в поле справа  с ссылками на другие страницы</t>
-  </si>
-  <si>
     <t>Открывается главная страница платформы GeekBrains</t>
   </si>
   <si>
     <t>Открывается страница "Вебинары"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Предварительные условия: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Имеется регистрация на платформе GeekBrains
-2. Перейти на страницу https://geekbrains.ru/</t>
-    </r>
   </si>
   <si>
     <t>1. Перейти на страницу "Вебинары" расположенной в поле справа с ссылками на другие страницы, кликнув на иконку</t>
@@ -324,12 +295,89 @@
   <si>
     <t>Открывается страница "Участвую" , где отображается выбранный вебинар с датой его начала</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Предварительные условия: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Имеется регистрация на платформе GeekBrains (авторизоваться на платформе GeekBrains)
+2. Перейти на страницу https://geekbrains.ru/</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Кликнуть на иконку "Вебинары" расположенной в поле слева  с ссылками на другие страницы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Перейти на середину страницы "Вебинары" в раздел "Рекомендуемые" </t>
+  </si>
+  <si>
+    <t>3. Проверить упорядоченность расположения вебинаров по количеству просмотров слева направо.</t>
+  </si>
+  <si>
+    <t>4. Проверить навигацию по вебинарам с помощью горизонтальной прокрутки</t>
+  </si>
+  <si>
+    <t>6. Проверить выборочно на самых популярных вебинарах работоспособность ссылки  кликом на окно отображения вебинара</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Проверить оформление окон отображания рекомендуемых вебинаров на отсутствие грамматических, орфографических ошибок в тексте названия, отображения количества просмотров и имени ведущего вебинара, расположения текста </t>
+  </si>
+  <si>
+    <t>Раздел "Рекомендуемые" располагается на середине странице располагаясь горизонтально в одну линию</t>
+  </si>
+  <si>
+    <t>Вебинары в разделе " Рекомендуемые" упорядоченны по количеству просмотров слева направо</t>
+  </si>
+  <si>
+    <t>Навигация по вебинарам осуществляется с помощью полосы горизонтальной прокрутки расположенной в нижней части блока рекомендуемых вебинаров</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В тексте отсутствуют грамматические и орфографические ошибки , отображается количество просмотров, имя ведущего вебинара, текст не выходит за границы блока </t>
+  </si>
+  <si>
+    <t>Открывается страница с выбранным вебинаром</t>
+  </si>
+  <si>
+    <t>project = "Test project" ORDER BY createdDate</t>
+  </si>
+  <si>
+    <t>project = "Test project" AND  status = Resolved ORDER BY createdDate</t>
+  </si>
+  <si>
+    <t>project = "Test project" AND  assignee  != currentUser() OR assignee is EMPTY</t>
+  </si>
+  <si>
+    <t>project = "Test project" AND  assignee = 605d777c6bb16c00694929cd (вводил фамилию и имя свою - везде я назначен - и Jira также предлагает автоматически меня, но в итоге после ввода имя и фамилия преобразуется в это) ORDER BY createdDate - поиск выполняется, ошибок нет</t>
+  </si>
+  <si>
+    <t>project = "Test project"   AND priority in (Highest)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> project = "Test project"   AND priority in (Medium</t>
+  </si>
+  <si>
+    <t>project = "Test project"  AND labels = test_1  AND priority in (Medium)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,13 +416,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -441,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -683,19 +724,6 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -878,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -928,7 +956,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -940,14 +990,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -958,83 +1003,84 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1091,6 +1137,55 @@
         <a:xfrm>
           <a:off x="331694" y="779928"/>
           <a:ext cx="12209930" cy="5748842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>539200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="982980"/>
+          <a:ext cx="8982160" cy="4229100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1316,172 +1411,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
     </row>
     <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
     </row>
     <row r="33" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
     </row>
     <row r="34" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
@@ -4397,10 +4492,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1009"/>
+  <dimension ref="A1:E1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E20"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4414,11 +4509,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
@@ -4441,74 +4536,74 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="24"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="59" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
@@ -4535,166 +4630,210 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+      <c r="A11" s="32">
         <v>1</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="42"/>
+    </row>
+    <row r="12" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="60" t="s">
+      <c r="E12" s="43"/>
+    </row>
+    <row r="13" spans="1:5" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="44"/>
+    </row>
+    <row r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
+        <v>2</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="55"/>
-    </row>
-    <row r="13" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="61" t="s">
+      <c r="D16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="E16" s="43"/>
+    </row>
+    <row r="17" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="57"/>
-    </row>
-    <row r="14" spans="1:5" ht="66.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="D17" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="44"/>
+    </row>
+    <row r="18" spans="1:5" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="45"/>
+    </row>
+    <row r="19" spans="1:5" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="46"/>
+    </row>
+    <row r="20" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E20" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
-        <v>2</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="17" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="55"/>
-    </row>
-    <row r="18" spans="1:5" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="57"/>
-    </row>
-    <row r="19" spans="1:5" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="43"/>
-    </row>
-    <row r="20" spans="1:5" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="61" t="s">
+    <row r="21" spans="1:5" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="32">
+        <v>3</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="42"/>
+    </row>
+    <row r="22" spans="1:5" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="41"/>
+    </row>
+    <row r="23" spans="1:5" s="18" customFormat="1" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="26"/>
-    </row>
-    <row r="21" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
-        <v>3</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="25"/>
-    </row>
-    <row r="23" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="26"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D23" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="41"/>
+    </row>
+    <row r="24" spans="1:5" s="18" customFormat="1" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="41"/>
+    </row>
+    <row r="25" spans="1:5" s="18" customFormat="1" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="41"/>
+    </row>
+    <row r="26" spans="1:5" s="18" customFormat="1" ht="94.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="41"/>
+    </row>
+    <row r="27" spans="1:5" ht="75.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="34"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="46"/>
+    </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5672,23 +5811,26 @@
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E3:E8"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5699,7 +5841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5709,473 +5853,473 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="28"/>
     </row>
     <row r="3" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
     </row>
     <row r="5" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="43"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="43"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="45"/>
     </row>
     <row r="7" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="43"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="45"/>
     </row>
     <row r="8" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="43"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="45"/>
     </row>
     <row r="9" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="43"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="45"/>
     </row>
     <row r="10" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="43"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="43"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="45"/>
     </row>
     <row r="12" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="43"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="45"/>
     </row>
     <row r="13" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="43"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="43"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="45"/>
     </row>
     <row r="15" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="43"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="45"/>
     </row>
     <row r="16" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="43"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="43"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="45"/>
     </row>
     <row r="18" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="43"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="45"/>
     </row>
     <row r="19" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="43"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="45"/>
     </row>
     <row r="20" spans="1:13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="43"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="45"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="43"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="45"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="43"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="45"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="43"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="45"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="43"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="45"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="43"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="45"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="43"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="45"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="43"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="43"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="43"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="43"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="43"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="46"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="45"/>
+    </row>
+    <row r="28" spans="1:13" ht="1.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="55"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="45"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="55"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="45"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="55"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="45"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="55"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="45"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="56"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="58"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7156,6 +7300,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7166,7 +7311,9 @@
   </sheetPr>
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7174,135 +7321,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="28"/>
     </row>
     <row r="3" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="48" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
-    </row>
-    <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
+    </row>
+    <row r="4" spans="1:16" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
-    </row>
-    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
+    </row>
+    <row r="5" spans="1:16" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="50"/>
-    </row>
-    <row r="6" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
+    </row>
+    <row r="6" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
-    </row>
-    <row r="7" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="72"/>
+    </row>
+    <row r="7" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
-    </row>
-    <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+    </row>
+    <row r="8" spans="1:16" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
-    </row>
-    <row r="9" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+    </row>
+    <row r="9" spans="1:16" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="48" t="s">
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
+    </row>
+    <row r="10" spans="1:16" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
-    </row>
-    <row r="10" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="A9:C9"/>
@@ -7315,11 +7479,6 @@
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="D9:I9"/>
     <mergeCell ref="D10:I10"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
